--- a/biology/Zoologie/Cephalozoa/Cephalozoa.xlsx
+++ b/biology/Zoologie/Cephalozoa/Cephalozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cephalozoa[1] forment une classe éteinte d'animaux marins primitifs segmentés à symétrie bilatérale, caractérisés par un corps arrondi ou ovale, très peu épais.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cephalozoa forment une classe éteinte d'animaux marins primitifs segmentés à symétrie bilatérale, caractérisés par un corps arrondi ou ovale, très peu épais.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la différence des autres classes de proarticulés, la segmentation du corps n'est pas complète et laisse apparaître vers l'avant une « tête » avec de fins canaux distributaires. Certaines espèces dans la famille des Yorgiidae montrent aussi une certaine asymétrie[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la différence des autres classes de proarticulés, la segmentation du corps n'est pas complète et laisse apparaître vers l'avant une « tête » avec de fins canaux distributaires. Certaines espèces dans la famille des Yorgiidae montrent aussi une certaine asymétrie.
 Ils sont connus en Russie près de la mer Blanche dans la région d'Arkhangelsk où ils ont vécu durant l'Édiacarien, c'est-à-dire il y a environ entre 635 et 540 Ma (millions d'années).
 </t>
         </is>
@@ -543,29 +557,100 @@
           <t>Familles, genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cephalozoa incluent deux familles : les Yorgiidae et les Sprigginidae.
-Yorgiidae
-Les Yorgiidae regroupent trois genres monospécifiques :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cephalozoa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalozoa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Familles, genres et espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yorgiidae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Yorgiidae regroupent trois genres monospécifiques :
 † Archaeaspinus Ivantsov, 2007 (synonyme de Archaeaspis)
 † Archaeaspinus fedonkini Ivantsov, 2001
 † Yorgia Ivantsov, 1999
-† Yorgia waggoneri Ivantsov, 1999
-Sprigginidae
-Les Sprigginidae regroupent trois genres monospécifiques :
+† Yorgia waggoneri Ivantsov, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cephalozoa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalozoa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Familles, genres et espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sprigginidae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sprigginidae regroupent trois genres monospécifiques :
 † Spriggina Glaessner, 1958
 † Spriggina floundersi Glaessner, 1958
 † Marywadea Glaessner, 1976
 † Marywadea ovata Glaessner et Wade, 1966
 † Cyanorus Ivantsov, 2004
 † Cyanorus singularis Ivantsov, 2004
-† Praecambridium Glaessner et Wade, 1966, précédemment classé comme un Yorgiidae ; il est dorénavant considéré comme une forme juvénile de Spriggina[6].
+† Praecambridium Glaessner et Wade, 1966, précédemment classé comme un Yorgiidae ; il est dorénavant considéré comme une forme juvénile de Spriggina.
 † Praecambridium sigillum Glaessner et Wade, 1966
 Le genre Andiva est parfois rattaché aux Cephalozoa :
 † Andiva Fedonkin, 2002
 † Andiva ivantsovi Fedonkin, 2002
-Fossilworks indique que la famille des Yorgiidae Ivantsov, 2001 pourrait leur être rattachée à la classe des Vendiamorpha[7].
+Fossilworks indique que la famille des Yorgiidae Ivantsov, 2001 pourrait leur être rattachée à la classe des Vendiamorpha.
 </t>
         </is>
       </c>
